--- a/files/geocode-inprogress.xlsx
+++ b/files/geocode-inprogress.xlsx
@@ -13483,7 +13483,7 @@
         <v>-70.939269999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>-71.484116</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>-71.068595999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>-70.931731999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>-71.022998000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>-71.153743000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>-71.154501999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>-71.052940000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>-70.936446000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>-71.090187</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>-71.097115000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>-70.977830999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>-71.070894999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>-71.284775999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>-71.012107</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>-71.237617</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>-71.502280999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>-70.928955999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>-71.152286000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>-71.054854000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>-71.097785999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>-70.929230000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>-71.551828999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>-71.058555999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>-71.083031000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>-71.287942000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>-71.083541999999994</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>-71.072530999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>-70.923241000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>-71.015495000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>-70.980141000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>-71.430503999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>-71.181235999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>-71.003838000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>-71.058716000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>-70.88355</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>-71.169380000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>-70.618289000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>-71.415779000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>-70.925318000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>-71.237617</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>-71.105170999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>-72.661841999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>-70.603706000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>-71.097274999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>-71.174143999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>-71.119704999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>-71.059078999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>-71.003838000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>-71.105170999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>-70.876159999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>-71.147084000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>-71.457902000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>-71.118426999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>-70.289490000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>-71.073689000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>-70.287231000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>-71.080658</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>-71.014469000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>-71.011892000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>-71.236552000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>-71.29128</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>-71.003838000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>-71.137654999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>-70.480948999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>-71.058555999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>-71.237617</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>-70.056030000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>-70.878180999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>-71.027170999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>-70.193269000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>-71.002983</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>-70.947533000000007</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>-71.097785999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>-70.925826999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>-71.037811000000005</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>-70.685052999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>-71.104380000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>-71.104380000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>-71.349389000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>-71.104380000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>-71.013287000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>-70.739125000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>-71.068595999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>-70.997882000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>-71.003838000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>-71.122535999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>-70.301970999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>-71.058555999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>-71.071934999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>-71.149238999999994</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>-71.014064000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>-71.065905999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>-71.137654999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>-70.901724999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>-71.206686000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>-71.181235999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>-70.929053999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>-71.058555999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>-71.054854000000006</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>-71.081991000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>-71.123649999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>-70.976179999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>-71.015693999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>-71.060289999999995</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>-71.450835999999995</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>-71.456710999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>-70.000533000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>-71.058716000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>-71.074361999999994</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>-71.105170999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>-71.064895000000007</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>-70.196106</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>-71.063676999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>-71.058340000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>-71.304344</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>-70.274977000000007</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>-70.056030000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>-71.281366000000006</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>-71.145340000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>-71.055391</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>-71.084190000000007</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>-69.990775999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>-71.119704999999996</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>-71.074361999999994</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>-70.946579</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>-70.898623999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>-70.056030000000007</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>-70.973860999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>-71.118426999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>-71.110727999999995</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>-71.29128</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>-71.100082</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>-70.918930000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>-71.066468</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>-71.149238999999994</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>-71.083541999999994</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>-71.212340999999995</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>-71.097785999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>-70.934246000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>-71.097785999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>-71.052111999999994</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>-70.922259999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -19798,7 +19798,7 @@
         <v>-71.082733000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -19839,7 +19839,7 @@
         <v>-70.932365000000004</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>-71.246391000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>-71.083928</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>-70.999791999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>-71.039990000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>-71.083579999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>-71.019673999999995</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>-71.162430000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>-70.896652000000003</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>-71.058446000000004</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -20523,7 +20523,7 @@
         <v>-71.003838000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>-71.058446000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>-70.480948999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>-70.976179999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>-71.073929000000007</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>-71.252495999999994</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>-71.068595999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>-71.102395999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>-71.348754999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>-71.069453999999993</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v>-70.955085999999994</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>-71.115375999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>-71.079139999999995</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>-71.006729000000007</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -21298,7 +21298,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>-71.164584000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>-70.286170999999996</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -21415,7 +21415,7 @@
         <v>-71.011544000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>-71.127525000000006</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>-71.565989000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>-70.651419000000004</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>-71.155067000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>-70.102988999999994</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>-71.181235999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>-71.298907999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>-71.118426999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>-70.88355</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -21804,7 +21804,7 @@
         <v>-71.415099999999995</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>-70.097198000000006</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>-71.881360999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>-71.149604999999994</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>-71.601961000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22073,7 +22073,7 @@
         <v>-71.248220000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -22114,7 +22114,7 @@
         <v>-71.420129000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>-71.069423</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -22202,7 +22202,7 @@
         <v>-71.284063000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>-71.155186</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>-71.071586999999994</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>-71.054141000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>-70.480948999999995</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>-70.758525000000006</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>-69.987128999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>-71.200462000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>-71.058716000000004</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -22588,7 +22588,7 @@
         <v>-71.073125000000005</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>-71.003838000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -22670,7 +22670,7 @@
         <v>-71.106161</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -22711,7 +22711,7 @@
         <v>-71.064446000000004</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -22752,7 +22752,7 @@
         <v>-71.092443000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -22790,7 +22790,7 @@
         <v>-71.217322999999993</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>-71.120918000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>-71.138490000000004</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>-71.193875000000006</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -22948,7 +22948,7 @@
         <v>-71.118426999999997</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>-71.149238999999994</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -23024,7 +23024,7 @@
         <v>-71.066861000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>-71.149238999999994</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>-71.068117999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>-71.097031000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>-71.174392999999995</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>-71.200462000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>-71.004158000000004</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>-70.315582000000006</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v>-71.043978999999993</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>-71.083031000000005</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>-71.058555999999996</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>-71.399180000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>-71.067634999999996</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -23583,7 +23583,7 @@
         <v>-71.067634999999996</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>-71.346940000000004</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -23662,7 +23662,7 @@
         <v>-71.601961000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>-71.200462000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>-70.927278000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -23928,7 +23928,7 @@
         <v>-71.176167000000007</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>-71.114857999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -24001,7 +24001,7 @@
         <v>-71.493392999999998</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -24077,7 +24077,7 @@
         <v>-71.359795000000005</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -24121,7 +24121,7 @@
         <v>-70.88355</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>-71.003838000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -24197,7 +24197,7 @@
         <v>-71.092124999999996</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>-71.398674</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>-71.206772000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>-71.003838000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -24396,7 +24396,7 @@
         <v>-71.065917999999996</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -24434,7 +24434,7 @@
         <v>-70.056030000000007</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>-71.097290000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>-71.008567999999997</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -24557,7 +24557,7 @@
         <v>-71.349389000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>-71.059174999999996</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -24639,7 +24639,7 @@
         <v>-71.420997999999997</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -24677,7 +24677,7 @@
         <v>-70.876434000000003</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>-71.237838999999994</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>-71.164584000000005</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -24803,9 +24803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
